--- a/Computational_Data/Overview_Energies/CASSCF_Energies.xlsx
+++ b/Computational_Data/Overview_Energies/CASSCF_Energies.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Overview_Energies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086A695-6934-774C-8758-EEC49A97071E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19580" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAS1311 Pi VDZ" sheetId="1" r:id="rId1"/>
     <sheet name="CAS1311 Pi VDZ PCM" sheetId="2" r:id="rId2"/>
     <sheet name="Plotting Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>CAS1311 Pi VDZ</t>
   </si>
@@ -66,15 +72,6 @@
     <t>VDZ Hartree Root 5</t>
   </si>
   <si>
-    <t>VDZ kcal Root 1</t>
-  </si>
-  <si>
-    <t>VDZ kcal Root 2</t>
-  </si>
-  <si>
-    <t>VDZ kcal Root 4</t>
-  </si>
-  <si>
     <t>PCM Hartree Root 1</t>
   </si>
   <si>
@@ -90,27 +87,6 @@
     <t>PCM Hartree Root 5</t>
   </si>
   <si>
-    <t>PCM kcal Root 1</t>
-  </si>
-  <si>
-    <t>PCM kcal Root 2</t>
-  </si>
-  <si>
-    <t>PCM kcal Root 3</t>
-  </si>
-  <si>
-    <t>PCM kcal Root 4</t>
-  </si>
-  <si>
-    <t>PCM kcal Root 5</t>
-  </si>
-  <si>
-    <t>VDZ kcal Root 3</t>
-  </si>
-  <si>
-    <t>VDZ kca lRoot 5</t>
-  </si>
-  <si>
     <t>GMe</t>
   </si>
   <si>
@@ -175,12 +151,57 @@
   </si>
   <si>
     <t>bottom</t>
+  </si>
+  <si>
+    <t>Oxidation_State</t>
+  </si>
+  <si>
+    <t>RuIII.png</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>RuI.png</t>
+  </si>
+  <si>
+    <t>Ox_Sphere_Y</t>
+  </si>
+  <si>
+    <t>PCM kJ/mol Root 1</t>
+  </si>
+  <si>
+    <t>PCM kJ/mol Root 2</t>
+  </si>
+  <si>
+    <t>PCM kJ/mol Root 3</t>
+  </si>
+  <si>
+    <t>PCM kJ/mol Root 4</t>
+  </si>
+  <si>
+    <t>PCM kJ/mol Root 5</t>
+  </si>
+  <si>
+    <t>VDZ kJ/mol Root 1</t>
+  </si>
+  <si>
+    <t>VDZ kJ/mol Root 2</t>
+  </si>
+  <si>
+    <t>VDZ kJ/mol Root 3</t>
+  </si>
+  <si>
+    <t>VDZ kJ/mol Root 4</t>
+  </si>
+  <si>
+    <t>VDZ kJ/mol Root 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -279,6 +300,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -603,19 +632,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -627,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -644,7 +675,7 @@
         <v>-5668.6676188499996</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -661,7 +692,7 @@
         <v>-5668.5729146200001</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -678,7 +709,7 @@
         <v>-5668.5589739500001</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -695,7 +726,7 @@
         <v>-5668.5568916900002</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -712,168 +743,168 @@
         <v>-5668.5330318300003</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
+        <v>48</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <v>42.802140615725001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>36.834870400950003</v>
-      </c>
-      <c r="E7" s="2">
-        <v>29.815216553915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7">
+        <v>179.08415633619342</v>
+      </c>
+      <c r="D7">
+        <v>154.11709775757481</v>
+      </c>
+      <c r="E7">
+        <v>124.74686606158036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.0455375036150001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>50.407085123599998</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36.837185911005001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>89.243020569099997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>4.3745289151251603</v>
+      </c>
+      <c r="C8">
+        <v>210.90324415714241</v>
+      </c>
+      <c r="D8">
+        <v>154.12678585164494</v>
+      </c>
+      <c r="E8">
+        <v>373.39279806111438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2">
-        <v>59.277854345065002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>50.427811762384998</v>
-      </c>
-      <c r="D9" s="2">
-        <v>72.593380031644998</v>
-      </c>
-      <c r="E9" s="2">
-        <v>97.990923430465003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>248.01854257975197</v>
+      </c>
+      <c r="C9">
+        <v>210.98996441381885</v>
+      </c>
+      <c r="D9">
+        <v>303.73070205240271</v>
+      </c>
+      <c r="E9">
+        <v>409.99402363306558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>65.191485047780006</v>
-      </c>
-      <c r="C10" s="2">
-        <v>61.142850229635002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>95.953356158299997</v>
-      </c>
-      <c r="E10" s="2">
-        <v>99.297561361934996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>272.76117343991154</v>
+      </c>
+      <c r="C10">
+        <v>255.82168536079286</v>
+      </c>
+      <c r="D10">
+        <v>401.46884216632719</v>
+      </c>
+      <c r="E10">
+        <v>415.46099673833606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2">
-        <v>98.212930016469997</v>
-      </c>
-      <c r="C11" s="2">
-        <v>68.136914239259994</v>
-      </c>
-      <c r="D11" s="2">
-        <v>97.834039780370006</v>
-      </c>
-      <c r="E11" s="2">
-        <v>114.269850180605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>410.92289918891049</v>
+      </c>
+      <c r="C11">
+        <v>285.0848491770638</v>
+      </c>
+      <c r="D11">
+        <v>409.33762244106811</v>
+      </c>
+      <c r="E11">
+        <v>478.10505315565138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -892,16 +923,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -919,9 +950,9 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>-5668.7622281100003</v>
@@ -937,9 +968,9 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>-5668.7542053799998</v>
@@ -955,9 +986,9 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>-5668.6665840400001</v>
@@ -973,9 +1004,9 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>-5668.6610658999998</v>
@@ -991,9 +1022,9 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>-5668.6515522700001</v>
@@ -1009,97 +1040,97 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2">
+        <v>43</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <v>47.452306040570001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>39.733274030499999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>36.301267697625001</v>
+      <c r="C7">
+        <v>198.5404484737449</v>
+      </c>
+      <c r="D7">
+        <v>166.24401854361201</v>
+      </c>
+      <c r="E7">
+        <v>151.88450404686301</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5.0343392909349998</v>
-      </c>
-      <c r="C8" s="2">
-        <v>52.146811286685001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>41.819692917239998</v>
-      </c>
-      <c r="E8" s="2">
-        <v>94.429599939829998</v>
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>21.063675593272041</v>
+      </c>
+      <c r="C8">
+        <v>218.18225842349005</v>
+      </c>
+      <c r="D8">
+        <v>174.97359516573215</v>
+      </c>
+      <c r="E8">
+        <v>395.09344614824874</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2">
-        <v>60.017562543665001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>55.158963563299999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>75.417028454459995</v>
-      </c>
-      <c r="E9" s="2">
-        <v>104.52277649257999</v>
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>251.11348168269438</v>
+      </c>
+      <c r="C9">
+        <v>230.78510354884719</v>
+      </c>
+      <c r="D9">
+        <v>315.54484705346061</v>
+      </c>
+      <c r="E9">
+        <v>437.32329684495471</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2">
-        <v>63.480247815995</v>
-      </c>
-      <c r="C10" s="2">
-        <v>65.844521634239996</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100.35832224601999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>116.964576776645</v>
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>265.60135686212311</v>
+      </c>
+      <c r="C10">
+        <v>275.49347851766015</v>
+      </c>
+      <c r="D10">
+        <v>419.89922027734769</v>
+      </c>
+      <c r="E10">
+        <v>489.37978923348271</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2">
-        <v>69.450141020480004</v>
-      </c>
-      <c r="C11" s="2">
-        <v>69.289467213004997</v>
-      </c>
-      <c r="D11" s="2">
-        <v>101.075471478095</v>
-      </c>
-      <c r="E11" s="2">
-        <v>136.716749784</v>
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>290.57939002968834</v>
+      </c>
+      <c r="C11">
+        <v>289.90713081921291</v>
+      </c>
+      <c r="D11">
+        <v>422.89977266434948</v>
+      </c>
+      <c r="E11">
+        <v>572.02288109625601</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1118,50 +1149,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
       <c r="E2">
         <v>8.5000000000000006E-2</v>
@@ -1172,19 +1209,25 @@
       <c r="G2">
         <v>-1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
       <c r="E3">
         <v>0.09</v>
@@ -1195,19 +1238,25 @@
       <c r="G3">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -1218,19 +1267,25 @@
       <c r="G4">
         <v>-7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
       </c>
       <c r="E5">
         <v>0.09</v>
@@ -1240,6 +1295,12 @@
       </c>
       <c r="G5">
         <v>-0.17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5">
+        <v>-1.1499999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Computational_Data/Overview_Energies/CASSCF_Energies.xlsx
+++ b/Computational_Data/Overview_Energies/CASSCF_Energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacob/Documents/Water_Splitting/Two_Photon_Water_Splitting/Computational_Data/Overview_Energies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086A695-6934-774C-8758-EEC49A97071E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E9E6E-5896-BE41-8A60-91EFA9042C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19580" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19580" windowHeight="13320" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAS1311 Pi VDZ" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,6 @@
     <t>D$_{1}$/D$_{0}$;MECI</t>
   </si>
   <si>
-    <t>$\bf{C_{mono}}$</t>
-  </si>
-  <si>
-    <t>FC;$\bf{B_{mono}}$</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -196,6 +190,12 @@
   </si>
   <si>
     <t>VDZ kJ/mol Root 5</t>
+  </si>
+  <si>
+    <t>[$\bf{C-Mono}$]</t>
+  </si>
+  <si>
+    <t>[$\bf{B-Mono}$];FC</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -745,7 +745,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>4.3745289151251603</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>248.01854257975197</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>272.76117343991154</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>410.92289918891049</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>21.063675593272041</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>251.11348168269438</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>265.60135686212311</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>290.57939002968834</v>
@@ -1152,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,22 +1169,22 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1192,13 +1192,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
       </c>
       <c r="E2">
         <v>8.5000000000000006E-2</v>
@@ -1210,7 +1210,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>-0.7</v>
@@ -1221,13 +1221,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0.09</v>
@@ -1239,7 +1239,7 @@
         <v>-0.05</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -1268,7 +1268,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1279,13 +1279,13 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0.09</v>
@@ -1297,7 +1297,7 @@
         <v>-0.17</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>-1.1499999999999999</v>
